--- a/Optimization/Gurobi/5 districts/Excel files/9-G to S.xlsx
+++ b/Optimization/Gurobi/5 districts/Excel files/9-G to S.xlsx
@@ -340,12 +340,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>39648</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>